--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhmower/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhmower/Desktop/School projects/Applied Programming/LifeBook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E692194F-B814-4344-8B41-417AD080BBE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5DF4CC3-AC69-774D-A93D-A0E491E03A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21600" xr2:uid="{880ECEA2-B438-484A-9CBA-91374F2777E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Current Iteration" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Burndown Chart</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Blank New Event Page</t>
   </si>
   <si>
-    <t>Study Android Studio</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -189,13 +186,10 @@
     <t>Jacob</t>
   </si>
   <si>
-    <t>study Android Studio</t>
+    <t>Elijah</t>
   </si>
   <si>
-    <t>Seth</t>
-  </si>
-  <si>
-    <t>Elijah</t>
+    <t>Kotlin</t>
   </si>
 </sst>
 </file>
@@ -1055,28 +1049,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -1248,67 +1242,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.25</c:v>
+                  <c:v>48.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5</c:v>
+                  <c:v>45.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.75</c:v>
+                  <c:v>43.350000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>40.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.25</c:v>
+                  <c:v>38.250000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.5</c:v>
+                  <c:v>35.700000000000017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.75</c:v>
+                  <c:v>33.15000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>30.600000000000019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.25</c:v>
+                  <c:v>28.050000000000018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5</c:v>
+                  <c:v>25.500000000000018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.75</c:v>
+                  <c:v>22.950000000000017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>20.400000000000016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.25</c:v>
+                  <c:v>17.850000000000016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5</c:v>
+                  <c:v>15.300000000000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.75</c:v>
+                  <c:v>12.750000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>10.200000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.25</c:v>
+                  <c:v>7.6500000000000137</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5</c:v>
+                  <c:v>5.1000000000000139</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.75</c:v>
+                  <c:v>2.550000000000014</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.4210854715202004E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,28 +1779,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
@@ -2027,67 +2021,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.25</c:v>
+                  <c:v>48.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.5</c:v>
+                  <c:v>45.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.75</c:v>
+                  <c:v>43.350000000000009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>40.800000000000011</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.25</c:v>
+                  <c:v>38.250000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.5</c:v>
+                  <c:v>35.700000000000017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.75</c:v>
+                  <c:v>33.15000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>30.600000000000019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.25</c:v>
+                  <c:v>28.050000000000018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.5</c:v>
+                  <c:v>25.500000000000018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.75</c:v>
+                  <c:v>22.950000000000017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6</c:v>
+                  <c:v>20.400000000000016</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.25</c:v>
+                  <c:v>17.850000000000016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5</c:v>
+                  <c:v>15.300000000000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.75</c:v>
+                  <c:v>12.750000000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>10.200000000000014</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.25</c:v>
+                  <c:v>7.6500000000000137</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.5</c:v>
+                  <c:v>5.1000000000000139</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.75</c:v>
+                  <c:v>2.550000000000014</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.4210854715202004E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3898,11 +3892,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE633DE-FC74-4926-B2DF-316D2130537E}">
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3979,7 +3973,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="33">
         <f>B38</f>
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="H3" s="43"/>
       <c r="I3" s="43"/>
@@ -4168,33 +4162,73 @@
       <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="20"/>
+      <c r="C8" s="19">
+        <v>4</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <v>0</v>
+      </c>
+      <c r="V8" s="20">
+        <v>0</v>
+      </c>
       <c r="W8" s="27">
         <f>B8-SUM(C8:V8)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X8" s="17">
         <f>IFERROR(1-(W8/B8),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="s">
         <v>36</v>
@@ -4207,57 +4241,121 @@
       <c r="B9" s="21">
         <v>3</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="23"/>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
+        <v>1</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="23">
+        <v>2</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0</v>
+      </c>
+      <c r="R9" s="23">
+        <v>0</v>
+      </c>
+      <c r="S9" s="23">
+        <v>0</v>
+      </c>
+      <c r="T9" s="23">
+        <v>0</v>
+      </c>
+      <c r="U9" s="23">
+        <v>0</v>
+      </c>
+      <c r="V9" s="23">
+        <v>0</v>
+      </c>
       <c r="W9" s="28">
         <f t="shared" ref="W9:W37" si="0">B9-SUM(C9:V9)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X9" s="17">
         <f>IFERROR(1-(W9/B9),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="21">
-        <v>4</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
+        <v>2</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <v>1</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0</v>
+      </c>
       <c r="O10" s="22"/>
       <c r="P10" s="23"/>
       <c r="Q10" s="22"/>
@@ -4268,35 +4366,59 @@
       <c r="V10" s="23"/>
       <c r="W10" s="28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X10" s="17">
         <f t="shared" ref="X10:X38" si="1">IFERROR(1-(W10/B10),"")</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="21">
         <v>4</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
       <c r="O11" s="22"/>
       <c r="P11" s="23"/>
       <c r="Q11" s="22"/>
@@ -4314,26 +4436,52 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="B12" s="21">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
+        <v>4</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="23">
+        <v>6</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="23">
+        <v>0</v>
+      </c>
       <c r="O12" s="22"/>
       <c r="P12" s="23"/>
       <c r="Q12" s="22"/>
@@ -4346,31 +4494,57 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X12" s="17" t="str">
+      <c r="X12" s="17">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="21">
+        <v>10</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="23">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>2</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <v>1</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0</v>
+      </c>
+      <c r="N13" s="23">
+        <v>0</v>
+      </c>
       <c r="O13" s="22"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="22"/>
@@ -4381,11 +4555,11 @@
       <c r="V13" s="23"/>
       <c r="W13" s="28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="17" t="str">
+        <v>6</v>
+      </c>
+      <c r="X13" s="17">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.4</v>
       </c>
       <c r="Y13" t="s">
         <v>36</v>
@@ -4395,19 +4569,45 @@
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
+      <c r="B14" s="21">
+        <v>10</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="23">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="23">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23">
+        <v>5</v>
+      </c>
+      <c r="I14" s="22">
+        <v>0</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0</v>
+      </c>
+      <c r="M14" s="22">
+        <v>0</v>
+      </c>
+      <c r="N14" s="23">
+        <v>5</v>
+      </c>
       <c r="O14" s="22"/>
       <c r="P14" s="23"/>
       <c r="Q14" s="22"/>
@@ -4420,18 +4620,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="X14" s="17">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="A15" s="4"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="23"/>
@@ -4461,9 +4659,6 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y15" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
@@ -5213,41 +5408,41 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="10">
         <f>SUM(B8:B37)</f>
-        <v>15</v>
-      </c>
-      <c r="C38" s="11" t="e">
+        <v>51</v>
+      </c>
+      <c r="C38" s="11">
         <f>IFERROR(IF(B38-SUM(C8:C37)=B38,NA(),B38-SUM(C8:C37)),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="11" t="e">
+        <v>47</v>
+      </c>
+      <c r="D38" s="11">
         <f t="shared" ref="D38:V38" si="2">IFERROR(IF(C38-SUM(D8:D37)=C38,NA(),C38-SUM(D8:D37)),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="11" t="e">
+        <v>46</v>
+      </c>
+      <c r="E38" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F38" s="11" t="e">
+        <v>45</v>
+      </c>
+      <c r="F38" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G38" s="11" t="e">
+        <v>44</v>
+      </c>
+      <c r="G38" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H38" s="11" t="e">
+        <v>43</v>
+      </c>
+      <c r="H38" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I38" s="11" t="e">
+        <v>36</v>
+      </c>
+      <c r="I38" s="11">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>28</v>
       </c>
       <c r="J38" s="11" t="e">
         <f t="shared" si="2"/>
@@ -5307,7 +5502,7 @@
       </c>
       <c r="X38" s="30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.70588235294117641</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.3">
@@ -5316,87 +5511,87 @@
       </c>
       <c r="B39" s="12">
         <f>SUM(B8:B37)</f>
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C39" s="13">
         <f>IFERROR((IF(B39-($B$38/$G$4) &lt; 0,"-", B39-($B$38/$G$4))),IFERROR(B39-($B$38/20),"-"))</f>
-        <v>14.25</v>
+        <v>48.45</v>
       </c>
       <c r="D39" s="13">
         <f t="shared" ref="D39:V39" si="3">IFERROR((IF(C39-($B$38/$G$4) &lt; 0,"-", C39-($B$38/$G$4))),IFERROR(C39-($B$38/20),"-"))</f>
-        <v>13.5</v>
+        <v>45.900000000000006</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="3"/>
-        <v>12.75</v>
+        <v>43.350000000000009</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>40.800000000000011</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
-        <v>11.25</v>
+        <v>38.250000000000014</v>
       </c>
       <c r="H39" s="13">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>35.700000000000017</v>
       </c>
       <c r="I39" s="13">
         <f t="shared" si="3"/>
-        <v>9.75</v>
+        <v>33.15000000000002</v>
       </c>
       <c r="J39" s="13">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>30.600000000000019</v>
       </c>
       <c r="K39" s="13">
         <f t="shared" si="3"/>
-        <v>8.25</v>
+        <v>28.050000000000018</v>
       </c>
       <c r="L39" s="13">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>25.500000000000018</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="3"/>
-        <v>6.75</v>
+        <v>22.950000000000017</v>
       </c>
       <c r="N39" s="13">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>20.400000000000016</v>
       </c>
       <c r="O39" s="13">
         <f t="shared" si="3"/>
-        <v>5.25</v>
+        <v>17.850000000000016</v>
       </c>
       <c r="P39" s="13">
         <f t="shared" si="3"/>
-        <v>4.5</v>
+        <v>15.300000000000015</v>
       </c>
       <c r="Q39" s="13">
         <f t="shared" si="3"/>
-        <v>3.75</v>
+        <v>12.750000000000014</v>
       </c>
       <c r="R39" s="13">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>10.200000000000014</v>
       </c>
       <c r="S39" s="13">
         <f t="shared" si="3"/>
-        <v>2.25</v>
+        <v>7.6500000000000137</v>
       </c>
       <c r="T39" s="13">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>5.1000000000000139</v>
       </c>
       <c r="U39" s="13">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>2.550000000000014</v>
       </c>
       <c r="V39" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.4210854715202004E-14</v>
       </c>
       <c r="W39" s="31"/>
       <c r="X39" s="32"/>
